--- a/assets/template/3a1.xlsx
+++ b/assets/template/3a1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B82511-15A2-4145-B0AD-1A411EF3EF59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="3405" yWindow="3795" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3a1" sheetId="1" r:id="rId1"/>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,6 +255,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -265,15 +275,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -660,62 +661,62 @@
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -727,10 +728,10 @@
       <c r="C13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>4</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="7">
         <v>5</v>
       </c>
@@ -774,417 +775,412 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="A11:A12"/>
@@ -1193,12 +1189,17 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$H$4:$H$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576 L14:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576 L14:L1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$G$4:$G$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/assets/template/3a1.xlsx
+++ b/assets/template/3a1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ridho\xampp7.4.25\htdocs\borangft\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B82511-15A2-4145-B0AD-1A411EF3EF59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F64D0-79A6-453B-A07A-86C7F8F4BBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="3795" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-2025" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3a1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -258,23 +258,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +599,7 @@
       <pane xSplit="1" ySplit="13" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -661,62 +664,62 @@
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -728,10 +731,10 @@
       <c r="C13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="13">
         <v>4</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="7">
         <v>5</v>
       </c>
@@ -776,411 +779,416 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="A11:A12"/>
@@ -1189,11 +1197,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
